--- a/data/ewas_cpgs_top_OS_with_EFSinfo.xlsx
+++ b/data/ewas_cpgs_top_OS_with_EFSinfo.xlsx
@@ -805,7 +805,7 @@
     <t>HK2</t>
   </si>
   <si>
-    <t>RP11-99J16__A.2;CAPN9</t>
+    <t>CAPN9;RP11-99J16__A.2</t>
   </si>
   <si>
     <t>BRD1</t>
@@ -814,7 +814,7 @@
     <t>RASGRP2</t>
   </si>
   <si>
-    <t>C7orf50;GPR146;RP11-449P15.1</t>
+    <t>RP11-449P15.1;C7orf50;GPR146</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -898,7 +898,7 @@
     <t>CTRB2</t>
   </si>
   <si>
-    <t>SLC35E2B;CDK11B;MMP23B</t>
+    <t>MMP23B;SLC35E2B;CDK11B</t>
   </si>
   <si>
     <t>UNC93B1</t>
@@ -1024,13 +1024,13 @@
     <t>SKAP1</t>
   </si>
   <si>
-    <t>PIP5K1C;AC004637.1</t>
+    <t>AC004637.1;PIP5K1C</t>
   </si>
   <si>
     <t>VPS13D</t>
   </si>
   <si>
-    <t>CTD-2162K18.3;CTD-2162K18.4</t>
+    <t>CTD-2162K18.4;CTD-2162K18.3</t>
   </si>
   <si>
     <t>STK3</t>
@@ -1048,7 +1048,7 @@
     <t>P2RX4</t>
   </si>
   <si>
-    <t>AGAP2;TSPAN31</t>
+    <t>TSPAN31;AGAP2</t>
   </si>
   <si>
     <t>SH3BP4</t>
@@ -1060,7 +1060,7 @@
     <t>ADCK3</t>
   </si>
   <si>
-    <t>RASL10B;TAF15</t>
+    <t>TAF15;RASL10B</t>
   </si>
   <si>
     <t>ETV6</t>
@@ -1072,19 +1072,19 @@
     <t>PRSS23</t>
   </si>
   <si>
-    <t>ZNF750;TBCD</t>
+    <t>TBCD;ZNF750</t>
   </si>
   <si>
     <t>RP11-227H15.4</t>
   </si>
   <si>
-    <t>YAF2;PPHLN1</t>
+    <t>PPHLN1;YAF2</t>
   </si>
   <si>
     <t>EOGT</t>
   </si>
   <si>
-    <t>FAM53B;RP11-12J10.3</t>
+    <t>RP11-12J10.3;FAM53B</t>
   </si>
   <si>
     <t>RP11-1252I4.2</t>
@@ -1117,7 +1117,7 @@
     <t>ITPK1</t>
   </si>
   <si>
-    <t>AC007131.1;RP11-444A22.1;AC007131.2</t>
+    <t>AC007131.2;RP11-444A22.1;AC007131.1</t>
   </si>
   <si>
     <t>TRAF3IP2-AS1;TRAF3IP2</t>
@@ -1195,7 +1195,7 @@
     <t>antisense</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>lincRNA;protein_coding</t>
@@ -1207,10 +1207,10 @@
     <t>sense_overlapping</t>
   </si>
   <si>
-    <t>sense_overlapping;protein_coding</t>
-  </si>
-  <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;sense_overlapping</t>
+  </si>
+  <si>
+    <t>protein_coding;processed_transcript</t>
   </si>
   <si>
     <t>processed_pseudogene</t>

--- a/data/ewas_cpgs_top_OS_with_EFSinfo.xlsx
+++ b/data/ewas_cpgs_top_OS_with_EFSinfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="616">
   <si>
     <t>chrm</t>
   </si>
@@ -733,7 +733,7 @@
     <t>TSC2</t>
   </si>
   <si>
-    <t>ANKRD11;RP1-168P16.2</t>
+    <t>RP1-168P16.2;ANKRD11</t>
   </si>
   <si>
     <t>CLEC16A</t>
@@ -793,19 +793,19 @@
     <t>VGLL4</t>
   </si>
   <si>
-    <t>SHBG;FXR2</t>
+    <t>FXR2;SHBG</t>
   </si>
   <si>
     <t>LINC01122</t>
   </si>
   <si>
-    <t>RP5-1052I5.2;LINC01140</t>
+    <t>LINC01140;RP5-1052I5.2</t>
   </si>
   <si>
     <t>HK2</t>
   </si>
   <si>
-    <t>CAPN9;RP11-99J16__A.2</t>
+    <t>RP11-99J16__A.2;CAPN9</t>
   </si>
   <si>
     <t>BRD1</t>
@@ -814,7 +814,7 @@
     <t>RASGRP2</t>
   </si>
   <si>
-    <t>RP11-449P15.1;C7orf50;GPR146</t>
+    <t>GPR146;RP11-449P15.1;C7orf50</t>
   </si>
   <si>
     <t>NPTN</t>
@@ -898,7 +898,7 @@
     <t>CTRB2</t>
   </si>
   <si>
-    <t>MMP23B;SLC35E2B;CDK11B</t>
+    <t>MMP23B;CDK11B;SLC35E2B</t>
   </si>
   <si>
     <t>UNC93B1</t>
@@ -952,7 +952,7 @@
     <t>HCP5;MICA</t>
   </si>
   <si>
-    <t>LNX1;LNX1-AS1;FIP1L1</t>
+    <t>FIP1L1;LNX1;LNX1-AS1</t>
   </si>
   <si>
     <t>RP11-114G22.1</t>
@@ -964,7 +964,7 @@
     <t>ANKRD11</t>
   </si>
   <si>
-    <t>ARL3;SFXN2</t>
+    <t>SFXN2;ARL3</t>
   </si>
   <si>
     <t>PDE10A</t>
@@ -1030,7 +1030,7 @@
     <t>VPS13D</t>
   </si>
   <si>
-    <t>CTD-2162K18.4;CTD-2162K18.3</t>
+    <t>CTD-2162K18.3;CTD-2162K18.4</t>
   </si>
   <si>
     <t>STK3</t>
@@ -1060,7 +1060,7 @@
     <t>ADCK3</t>
   </si>
   <si>
-    <t>TAF15;RASL10B</t>
+    <t>RASL10B;TAF15</t>
   </si>
   <si>
     <t>ETV6</t>
@@ -1072,7 +1072,7 @@
     <t>PRSS23</t>
   </si>
   <si>
-    <t>TBCD;ZNF750</t>
+    <t>ZNF750;TBCD</t>
   </si>
   <si>
     <t>RP11-227H15.4</t>
@@ -1084,7 +1084,7 @@
     <t>EOGT</t>
   </si>
   <si>
-    <t>RP11-12J10.3;FAM53B</t>
+    <t>FAM53B;RP11-12J10.3</t>
   </si>
   <si>
     <t>RP11-1252I4.2</t>
@@ -1099,7 +1099,7 @@
     <t>BAHCC1</t>
   </si>
   <si>
-    <t>KLK6;CTB-147C22.9</t>
+    <t>CTB-147C22.9;KLK6</t>
   </si>
   <si>
     <t>RP11-159F24.3;C5orf28</t>
@@ -1153,10 +1153,10 @@
     <t>USP31</t>
   </si>
   <si>
-    <t>CTD-2506P8.6;GTF2A1</t>
-  </si>
-  <si>
-    <t>C12orf4;RAD51AP1</t>
+    <t>GTF2A1;CTD-2506P8.6</t>
+  </si>
+  <si>
+    <t>RAD51AP1;C12orf4</t>
   </si>
   <si>
     <t>CDIP1</t>
@@ -1198,13 +1198,16 @@
     <t>protein_coding;antisense</t>
   </si>
   <si>
-    <t>lincRNA;protein_coding</t>
+    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>unitary_pseudogene;processed_transcript</t>
   </si>
   <si>
     <t>sense_overlapping</t>
+  </si>
+  <si>
+    <t>antisense;protein_coding</t>
   </si>
   <si>
     <t>protein_coding;sense_overlapping</t>
@@ -2379,10 +2382,10 @@
         <v>2.131734154541927</v>
       </c>
       <c r="Z2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:27">
@@ -2462,10 +2465,10 @@
         <v>5.753085307111016</v>
       </c>
       <c r="Z3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -2488,7 +2491,7 @@
         <v>389</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H4">
         <v>0.1281076282995872</v>
@@ -2545,10 +2548,10 @@
         <v>2.052121220005733</v>
       </c>
       <c r="Z4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -2628,10 +2631,10 @@
         <v>3.416838973377135</v>
       </c>
       <c r="Z5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:27">
@@ -2711,10 +2714,10 @@
         <v>8.41257488657395</v>
       </c>
       <c r="Z6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -2794,10 +2797,10 @@
         <v>7.051189581291787</v>
       </c>
       <c r="Z7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2877,10 +2880,10 @@
         <v>2.341008566677612</v>
       </c>
       <c r="Z8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -2960,10 +2963,10 @@
         <v>2.292668898731732</v>
       </c>
       <c r="Z9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -3043,10 +3046,10 @@
         <v>3.194700252116966</v>
       </c>
       <c r="Z10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -3126,10 +3129,10 @@
         <v>1.50247820184399</v>
       </c>
       <c r="Z11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA11" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -3209,10 +3212,10 @@
         <v>2.262804960812513</v>
       </c>
       <c r="Z12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA12" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -3292,10 +3295,10 @@
         <v>4.680944233671499</v>
       </c>
       <c r="Z13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -3318,7 +3321,7 @@
         <v>392</v>
       </c>
       <c r="G14" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H14">
         <v>-0.2807355565354843</v>
@@ -3375,10 +3378,10 @@
         <v>5.095017529215887</v>
       </c>
       <c r="Z14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -3458,10 +3461,10 @@
         <v>2.412557261257557</v>
       </c>
       <c r="Z15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -3484,7 +3487,7 @@
         <v>389</v>
       </c>
       <c r="G16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H16">
         <v>-0.1863745687243242</v>
@@ -3541,10 +3544,10 @@
         <v>2.443884175379976</v>
       </c>
       <c r="Z16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -3624,10 +3627,10 @@
         <v>4.884579443853943</v>
       </c>
       <c r="Z17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -3707,10 +3710,10 @@
         <v>1.859623236504861</v>
       </c>
       <c r="Z18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:27">
@@ -3733,7 +3736,7 @@
         <v>389</v>
       </c>
       <c r="G19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H19">
         <v>-0.152823389510014</v>
@@ -3790,10 +3793,10 @@
         <v>2.707398748065372</v>
       </c>
       <c r="Z19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:27">
@@ -3816,7 +3819,7 @@
         <v>389</v>
       </c>
       <c r="G20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H20">
         <v>0.1679484438251442</v>
@@ -3873,10 +3876,10 @@
         <v>3.910815944441846</v>
       </c>
       <c r="Z20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -3899,7 +3902,7 @@
         <v>389</v>
       </c>
       <c r="G21" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H21">
         <v>0.1922866667098735</v>
@@ -3956,10 +3959,10 @@
         <v>1.618639782798871</v>
       </c>
       <c r="Z21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -3982,7 +3985,7 @@
         <v>389</v>
       </c>
       <c r="G22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H22">
         <v>0.1613858198070359</v>
@@ -4039,10 +4042,10 @@
         <v>1.719965231640515</v>
       </c>
       <c r="Z22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -4122,10 +4125,10 @@
         <v>1.783587100426727</v>
       </c>
       <c r="Z23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:27">
@@ -4205,10 +4208,10 @@
         <v>1.174024577825871</v>
       </c>
       <c r="Z24" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA24" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:27">
@@ -4231,7 +4234,7 @@
         <v>389</v>
       </c>
       <c r="G25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H25">
         <v>-0.1953919482836039</v>
@@ -4288,10 +4291,10 @@
         <v>2.165905989831826</v>
       </c>
       <c r="Z25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA25" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -4371,10 +4374,10 @@
         <v>1.889987725090653</v>
       </c>
       <c r="Z26" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA26" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -4454,10 +4457,10 @@
         <v>3.947830457001641</v>
       </c>
       <c r="Z27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -4537,10 +4540,10 @@
         <v>3.916702740154153</v>
       </c>
       <c r="Z28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA28" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -4563,7 +4566,7 @@
         <v>394</v>
       </c>
       <c r="G29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H29">
         <v>-0.1832520847405864</v>
@@ -4620,10 +4623,10 @@
         <v>4.941880150597682</v>
       </c>
       <c r="Z29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -4703,10 +4706,10 @@
         <v>2.27362948759778</v>
       </c>
       <c r="Z30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -4786,10 +4789,10 @@
         <v>2.600790652323363</v>
       </c>
       <c r="Z31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA31" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -4869,10 +4872,10 @@
         <v>1.120439500083958</v>
       </c>
       <c r="Z32" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -4952,10 +4955,10 @@
         <v>1.172944747459049</v>
       </c>
       <c r="Z33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA33" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -4978,7 +4981,7 @@
         <v>389</v>
       </c>
       <c r="G34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H34">
         <v>0.1563574320194622</v>
@@ -5035,10 +5038,10 @@
         <v>1.51274726357129</v>
       </c>
       <c r="Z34" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -5061,7 +5064,7 @@
         <v>389</v>
       </c>
       <c r="G35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H35">
         <v>-0.1850360702549992</v>
@@ -5118,10 +5121,10 @@
         <v>3.431749670616148</v>
       </c>
       <c r="Z35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA35" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -5144,7 +5147,7 @@
         <v>393</v>
       </c>
       <c r="G36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H36">
         <v>0.1456117815395944</v>
@@ -5201,10 +5204,10 @@
         <v>2.488933563716826</v>
       </c>
       <c r="Z36" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA36" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -5227,7 +5230,7 @@
         <v>389</v>
       </c>
       <c r="G37" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H37">
         <v>-0.2772362058290225</v>
@@ -5284,10 +5287,10 @@
         <v>4.726145358396772</v>
       </c>
       <c r="Z37" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA37" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -5310,7 +5313,7 @@
         <v>389</v>
       </c>
       <c r="G38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H38">
         <v>-0.4367478592425967</v>
@@ -5367,10 +5370,10 @@
         <v>3.279012868918522</v>
       </c>
       <c r="Z38" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA38" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -5393,7 +5396,7 @@
         <v>389</v>
       </c>
       <c r="G39" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H39">
         <v>0.2193314998222758</v>
@@ -5450,10 +5453,10 @@
         <v>3.123553717348665</v>
       </c>
       <c r="Z39" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -5476,7 +5479,7 @@
         <v>389</v>
       </c>
       <c r="G40" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H40">
         <v>0.1840526153392952</v>
@@ -5533,10 +5536,10 @@
         <v>2.053473942086462</v>
       </c>
       <c r="Z40" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA40" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -5616,10 +5619,10 @@
         <v>2.719694631850289</v>
       </c>
       <c r="Z41" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA41" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -5642,7 +5645,7 @@
         <v>389</v>
       </c>
       <c r="G42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H42">
         <v>0.09983799787504384</v>
@@ -5699,10 +5702,10 @@
         <v>1.808220019087237</v>
       </c>
       <c r="Z42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA42" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -5782,10 +5785,10 @@
         <v>2.845422943228463</v>
       </c>
       <c r="Z43" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA43" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -5808,7 +5811,7 @@
         <v>389</v>
       </c>
       <c r="G44" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H44">
         <v>-0.1719514784448145</v>
@@ -5865,10 +5868,10 @@
         <v>1.954141179776348</v>
       </c>
       <c r="Z44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA44" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -5891,7 +5894,7 @@
         <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H45">
         <v>-0.404346455628757</v>
@@ -5948,10 +5951,10 @@
         <v>3.920462453565307</v>
       </c>
       <c r="Z45" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA45" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -6031,10 +6034,10 @@
         <v>1.271098146644457</v>
       </c>
       <c r="Z46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA46" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -6057,7 +6060,7 @@
         <v>395</v>
       </c>
       <c r="G47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H47">
         <v>0.2609063975040073</v>
@@ -6114,10 +6117,10 @@
         <v>2.336209601898605</v>
       </c>
       <c r="Z47" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -6197,10 +6200,10 @@
         <v>2.53878531009845</v>
       </c>
       <c r="Z48" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA48" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -6280,10 +6283,10 @@
         <v>2.770473570115063</v>
       </c>
       <c r="Z49" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA49" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -6306,7 +6309,7 @@
         <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H50">
         <v>-0.4144921978824181</v>
@@ -6363,10 +6366,10 @@
         <v>3.976278391063846</v>
       </c>
       <c r="Z50" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AA50" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -6446,10 +6449,10 @@
         <v>1.479598938349913</v>
       </c>
       <c r="Z51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA51" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -6472,7 +6475,7 @@
         <v>396</v>
       </c>
       <c r="G52" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H52">
         <v>0.1883206397041715</v>
@@ -6529,10 +6532,10 @@
         <v>1.588285640043465</v>
       </c>
       <c r="Z52" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA52" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -6555,7 +6558,7 @@
         <v>389</v>
       </c>
       <c r="G53" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H53">
         <v>-0.1900753589839543</v>
@@ -6612,10 +6615,10 @@
         <v>1.616945603794127</v>
       </c>
       <c r="Z53" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA53" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -6695,10 +6698,10 @@
         <v>2.403326417558716</v>
       </c>
       <c r="Z54" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -6778,10 +6781,10 @@
         <v>3.998884093508202</v>
       </c>
       <c r="Z55" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -6804,7 +6807,7 @@
         <v>389</v>
       </c>
       <c r="G56" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H56">
         <v>-0.1734736623892388</v>
@@ -6861,10 +6864,10 @@
         <v>0.8524433717888303</v>
       </c>
       <c r="Z56" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA56" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -6887,7 +6890,7 @@
         <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H57">
         <v>-0.3304651334066685</v>
@@ -6944,10 +6947,10 @@
         <v>2.80099215588324</v>
       </c>
       <c r="Z57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA57" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -7027,10 +7030,10 @@
         <v>1.642776257641443</v>
       </c>
       <c r="Z58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA58" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -7053,7 +7056,7 @@
         <v>389</v>
       </c>
       <c r="G59" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H59">
         <v>0.2161602532183263</v>
@@ -7110,10 +7113,10 @@
         <v>1.263774031480247</v>
       </c>
       <c r="Z59" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA59" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -7193,10 +7196,10 @@
         <v>2.421650566235446</v>
       </c>
       <c r="Z60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA60" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -7276,10 +7279,10 @@
         <v>1.554750353655205</v>
       </c>
       <c r="Z61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA61" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -7359,10 +7362,10 @@
         <v>3.087168590068797</v>
       </c>
       <c r="Z62" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA62" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -7442,10 +7445,10 @@
         <v>2.538876575556864</v>
       </c>
       <c r="Z63" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA63" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -7468,7 +7471,7 @@
         <v>394</v>
       </c>
       <c r="G64" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H64">
         <v>-0.3117884239803215</v>
@@ -7525,10 +7528,10 @@
         <v>2.014115797607755</v>
       </c>
       <c r="Z64" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA64" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -7608,10 +7611,10 @@
         <v>2.099322338764412</v>
       </c>
       <c r="Z65" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA65" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -7691,10 +7694,10 @@
         <v>1.998093737272777</v>
       </c>
       <c r="Z66" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA66" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -7774,10 +7777,10 @@
         <v>4.101288212311387</v>
       </c>
       <c r="Z67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA67" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -7800,7 +7803,7 @@
         <v>389</v>
       </c>
       <c r="G68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H68">
         <v>0.1247183648993535</v>
@@ -7857,10 +7860,10 @@
         <v>2.421898725895891</v>
       </c>
       <c r="Z68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AA68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -7940,10 +7943,10 @@
         <v>0.9702874086947915</v>
       </c>
       <c r="Z69" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA69" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -7966,7 +7969,7 @@
         <v>389</v>
       </c>
       <c r="G70" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H70">
         <v>0.153382469659479</v>
@@ -8023,10 +8026,10 @@
         <v>1.39415630881166</v>
       </c>
       <c r="Z70" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA70" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -8049,7 +8052,7 @@
         <v>389</v>
       </c>
       <c r="G71" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H71">
         <v>-0.09859587247872083</v>
@@ -8106,10 +8109,10 @@
         <v>2.02582809843965</v>
       </c>
       <c r="Z71" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA71" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -8189,10 +8192,10 @@
         <v>4.043741143993369</v>
       </c>
       <c r="Z72" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA72" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -8272,10 +8275,10 @@
         <v>1.368748300336212</v>
       </c>
       <c r="Z73" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA73" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -8355,10 +8358,10 @@
         <v>2.837843468138244</v>
       </c>
       <c r="Z74" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA74" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -8438,10 +8441,10 @@
         <v>2.998002375849235</v>
       </c>
       <c r="Z75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -8521,10 +8524,10 @@
         <v>2.451813143115392</v>
       </c>
       <c r="Z76" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA76" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -8547,7 +8550,7 @@
         <v>389</v>
       </c>
       <c r="G77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H77">
         <v>-0.2918577661278159</v>
@@ -8604,10 +8607,10 @@
         <v>4.731592213256162</v>
       </c>
       <c r="Z77" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA77" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -8630,7 +8633,7 @@
         <v>389</v>
       </c>
       <c r="G78" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H78">
         <v>-0.2313923484497453</v>
@@ -8687,10 +8690,10 @@
         <v>2.168653838033983</v>
       </c>
       <c r="Z78" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA78" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -8770,10 +8773,10 @@
         <v>0.90940781776049</v>
       </c>
       <c r="Z79" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA79" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -8796,7 +8799,7 @@
         <v>389</v>
       </c>
       <c r="G80" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H80">
         <v>0.1675801898653992</v>
@@ -8853,10 +8856,10 @@
         <v>2.902466274359277</v>
       </c>
       <c r="Z80" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA80" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -8879,7 +8882,7 @@
         <v>393</v>
       </c>
       <c r="G81" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H81">
         <v>0.1646048186260628</v>
@@ -8936,10 +8939,10 @@
         <v>2.993666897219192</v>
       </c>
       <c r="Z81" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA81" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -9019,10 +9022,10 @@
         <v>1.511716838983911</v>
       </c>
       <c r="Z82" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA82" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -9045,7 +9048,7 @@
         <v>389</v>
       </c>
       <c r="G83" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H83">
         <v>0.1856036630225394</v>
@@ -9102,10 +9105,10 @@
         <v>3.231747978604708</v>
       </c>
       <c r="Z83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA83" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -9128,7 +9131,7 @@
         <v>389</v>
       </c>
       <c r="G84" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H84">
         <v>-0.1382749444870071</v>
@@ -9185,10 +9188,10 @@
         <v>1.276229029689533</v>
       </c>
       <c r="Z84" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA84" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -9208,10 +9211,10 @@
         <v>306</v>
       </c>
       <c r="F85" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G85" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H85">
         <v>0.1313241375814886</v>
@@ -9268,10 +9271,10 @@
         <v>1.353162876877484</v>
       </c>
       <c r="Z85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA85" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -9351,10 +9354,10 @@
         <v>1.512854107518202</v>
       </c>
       <c r="Z86" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA86" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -9434,10 +9437,10 @@
         <v>1.843019443632694</v>
       </c>
       <c r="Z87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA87" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -9517,10 +9520,10 @@
         <v>1.939383070736742</v>
       </c>
       <c r="Z88" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA88" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -9600,10 +9603,10 @@
         <v>1.464733206690297</v>
       </c>
       <c r="Z89" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA89" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -9626,7 +9629,7 @@
         <v>389</v>
       </c>
       <c r="G90" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H90">
         <v>0.1764255922488579</v>
@@ -9683,10 +9686,10 @@
         <v>2.121567602533618</v>
       </c>
       <c r="Z90" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AA90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -9706,10 +9709,10 @@
         <v>311</v>
       </c>
       <c r="F91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G91" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H91">
         <v>-0.3287959221806739</v>
@@ -9766,10 +9769,10 @@
         <v>2.166878159901371</v>
       </c>
       <c r="Z91" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA91" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -9849,10 +9852,10 @@
         <v>3.442278287142498</v>
       </c>
       <c r="Z92" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA92" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -9932,10 +9935,10 @@
         <v>4.318886708309948</v>
       </c>
       <c r="Z93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA93" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -9958,7 +9961,7 @@
         <v>389</v>
       </c>
       <c r="G94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H94">
         <v>0.1432558123041273</v>
@@ -10015,10 +10018,10 @@
         <v>1.608717568060418</v>
       </c>
       <c r="Z94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA94" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -10041,7 +10044,7 @@
         <v>389</v>
       </c>
       <c r="G95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H95">
         <v>0.2418681279933615</v>
@@ -10098,10 +10101,10 @@
         <v>2.612510778294791</v>
       </c>
       <c r="Z95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA95" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -10124,7 +10127,7 @@
         <v>389</v>
       </c>
       <c r="G96" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H96">
         <v>-0.16533845170752</v>
@@ -10181,10 +10184,10 @@
         <v>2.149420111838529</v>
       </c>
       <c r="Z96" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA96" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -10207,7 +10210,7 @@
         <v>389</v>
       </c>
       <c r="G97" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H97">
         <v>-0.135463201664165</v>
@@ -10264,10 +10267,10 @@
         <v>0.8379836964116387</v>
       </c>
       <c r="Z97" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA97" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -10347,10 +10350,10 @@
         <v>2.95336468648083</v>
       </c>
       <c r="Z98" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA98" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -10373,7 +10376,7 @@
         <v>252</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H99">
         <v>0.1294136838948896</v>
@@ -10430,10 +10433,10 @@
         <v>2.26481959187805</v>
       </c>
       <c r="Z99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA99" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -10456,7 +10459,7 @@
         <v>391</v>
       </c>
       <c r="G100" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H100">
         <v>-0.14232811970667</v>
@@ -10513,10 +10516,10 @@
         <v>0.06872250234638154</v>
       </c>
       <c r="Z100" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA100" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -10539,7 +10542,7 @@
         <v>389</v>
       </c>
       <c r="G101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H101">
         <v>-0.202231993930243</v>
@@ -10596,10 +10599,10 @@
         <v>1.47282545909066</v>
       </c>
       <c r="Z101" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA101" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -10622,7 +10625,7 @@
         <v>389</v>
       </c>
       <c r="G102" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H102">
         <v>-0.1831074302950571</v>
@@ -10679,10 +10682,10 @@
         <v>2.228713336077126</v>
       </c>
       <c r="Z102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA102" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -10705,7 +10708,7 @@
         <v>389</v>
       </c>
       <c r="G103" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H103">
         <v>0.1935446443246476</v>
@@ -10762,10 +10765,10 @@
         <v>4.186486322240736</v>
       </c>
       <c r="Z103" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA103" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -10788,7 +10791,7 @@
         <v>389</v>
       </c>
       <c r="G104" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H104">
         <v>0.2474811422945203</v>
@@ -10845,10 +10848,10 @@
         <v>2.507634375016056</v>
       </c>
       <c r="Z104" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA104" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -10928,10 +10931,10 @@
         <v>4.207468747166989</v>
       </c>
       <c r="Z105" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA105" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -10954,7 +10957,7 @@
         <v>389</v>
       </c>
       <c r="G106" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H106">
         <v>-0.1686547818225725</v>
@@ -11011,10 +11014,10 @@
         <v>0.8089605920340871</v>
       </c>
       <c r="Z106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA106" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -11037,7 +11040,7 @@
         <v>389</v>
       </c>
       <c r="G107" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H107">
         <v>-0.2348658093719411</v>
@@ -11094,10 +11097,10 @@
         <v>2.111874219233879</v>
       </c>
       <c r="Z107" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA107" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -11120,7 +11123,7 @@
         <v>389</v>
       </c>
       <c r="G108" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H108">
         <v>-0.1677595461992288</v>
@@ -11177,10 +11180,10 @@
         <v>2.234900060469075</v>
       </c>
       <c r="Z108" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA108" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -11260,10 +11263,10 @@
         <v>2.632548440710065</v>
       </c>
       <c r="Z109" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA109" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -11343,10 +11346,10 @@
         <v>1.392729831372667</v>
       </c>
       <c r="Z110" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA110" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -11426,10 +11429,10 @@
         <v>3.396583327784224</v>
       </c>
       <c r="Z111" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA111" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -11449,10 +11452,10 @@
         <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H112">
         <v>0.09358315404956201</v>
@@ -11509,10 +11512,10 @@
         <v>3.042188183983267</v>
       </c>
       <c r="Z112" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA112" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -11592,10 +11595,10 @@
         <v>1.170595560777351</v>
       </c>
       <c r="Z113" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA113" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -11618,7 +11621,7 @@
         <v>252</v>
       </c>
       <c r="G114" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H114">
         <v>-0.188968636150751</v>
@@ -11675,10 +11678,10 @@
         <v>1.24139268996691</v>
       </c>
       <c r="Z114" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA114" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -11758,10 +11761,10 @@
         <v>1.071114050007109</v>
       </c>
       <c r="Z115" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA115" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -11784,7 +11787,7 @@
         <v>252</v>
       </c>
       <c r="G116" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H116">
         <v>0.1105442996129366</v>
@@ -11841,10 +11844,10 @@
         <v>1.142819678228674</v>
       </c>
       <c r="Z116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA116" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -11867,7 +11870,7 @@
         <v>389</v>
       </c>
       <c r="G117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H117">
         <v>-0.1773411151572072</v>
@@ -11924,10 +11927,10 @@
         <v>2.496954452945004</v>
       </c>
       <c r="Z117" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA117" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -12007,10 +12010,10 @@
         <v>4.363824979328035</v>
       </c>
       <c r="Z118" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA118" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -12030,10 +12033,10 @@
         <v>333</v>
       </c>
       <c r="F119" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H119">
         <v>-0.1799421789233077</v>
@@ -12090,10 +12093,10 @@
         <v>1.830234431701496</v>
       </c>
       <c r="Z119" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA119" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -12173,10 +12176,10 @@
         <v>3.485273093218167</v>
       </c>
       <c r="Z120" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA120" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -12199,7 +12202,7 @@
         <v>389</v>
       </c>
       <c r="G121" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H121">
         <v>-0.1305083318705849</v>
@@ -12256,10 +12259,10 @@
         <v>1.569618262697688</v>
       </c>
       <c r="Z121" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA121" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -12279,10 +12282,10 @@
         <v>336</v>
       </c>
       <c r="F122" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H122">
         <v>0.1230655835616244</v>
@@ -12339,10 +12342,10 @@
         <v>1.680890236941982</v>
       </c>
       <c r="Z122" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -12422,10 +12425,10 @@
         <v>4.13665487706606</v>
       </c>
       <c r="Z123" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA123" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -12448,7 +12451,7 @@
         <v>391</v>
       </c>
       <c r="G124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H124">
         <v>-0.1682977441432268</v>
@@ -12505,10 +12508,10 @@
         <v>0.51058950393868</v>
       </c>
       <c r="Z124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA124" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -12531,7 +12534,7 @@
         <v>389</v>
       </c>
       <c r="G125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H125">
         <v>0.1754005239640937</v>
@@ -12588,10 +12591,10 @@
         <v>4.176693238664181</v>
       </c>
       <c r="Z125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA125" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -12614,7 +12617,7 @@
         <v>252</v>
       </c>
       <c r="G126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H126">
         <v>-0.1769422785841869</v>
@@ -12671,10 +12674,10 @@
         <v>1.377575027007206</v>
       </c>
       <c r="Z126" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA126" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -12697,7 +12700,7 @@
         <v>389</v>
       </c>
       <c r="G127" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H127">
         <v>-0.3132987350850267</v>
@@ -12754,10 +12757,10 @@
         <v>3.533199988022938</v>
       </c>
       <c r="Z127" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA127" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -12780,7 +12783,7 @@
         <v>389</v>
       </c>
       <c r="G128" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H128">
         <v>-0.136397060207712</v>
@@ -12837,10 +12840,10 @@
         <v>2.376701192727083</v>
       </c>
       <c r="Z128" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA128" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -12920,10 +12923,10 @@
         <v>1.872788507457618</v>
       </c>
       <c r="Z129" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA129" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -13003,10 +13006,10 @@
         <v>2.032558299297468</v>
       </c>
       <c r="Z130" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA130" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -13086,10 +13089,10 @@
         <v>2.770977170284728</v>
       </c>
       <c r="Z131" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA131" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -13169,10 +13172,10 @@
         <v>1.194154611447962</v>
       </c>
       <c r="Z132" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA132" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -13195,7 +13198,7 @@
         <v>389</v>
       </c>
       <c r="G133" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H133">
         <v>-0.3272820944294888</v>
@@ -13252,10 +13255,10 @@
         <v>1.47534169711519</v>
       </c>
       <c r="Z133" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA133" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -13278,7 +13281,7 @@
         <v>389</v>
       </c>
       <c r="G134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H134">
         <v>-0.1971760236120807</v>
@@ -13335,10 +13338,10 @@
         <v>1.414034722955138</v>
       </c>
       <c r="Z134" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA134" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -13361,7 +13364,7 @@
         <v>252</v>
       </c>
       <c r="G135" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H135">
         <v>-0.2410024785663294</v>
@@ -13418,10 +13421,10 @@
         <v>2.911026874510003</v>
       </c>
       <c r="Z135" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA135" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -13501,10 +13504,10 @@
         <v>0.82660999367449</v>
       </c>
       <c r="Z136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA136" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -13584,10 +13587,10 @@
         <v>1.220897010186918</v>
       </c>
       <c r="Z137" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA137" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -13610,7 +13613,7 @@
         <v>389</v>
       </c>
       <c r="G138" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H138">
         <v>0.2535871610893931</v>
@@ -13667,10 +13670,10 @@
         <v>1.642767946238595</v>
       </c>
       <c r="Z138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA138" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -13750,10 +13753,10 @@
         <v>2.287103384195892</v>
       </c>
       <c r="Z139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA139" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -13833,10 +13836,10 @@
         <v>2.296115742037523</v>
       </c>
       <c r="Z140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA140" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -13916,10 +13919,10 @@
         <v>1.769711329833213</v>
       </c>
       <c r="Z141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA141" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -13999,10 +14002,10 @@
         <v>1.976056326374562</v>
       </c>
       <c r="Z142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -14025,7 +14028,7 @@
         <v>389</v>
       </c>
       <c r="G143" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H143">
         <v>-0.1340689373983012</v>
@@ -14082,10 +14085,10 @@
         <v>2.879453914302943</v>
       </c>
       <c r="Z143" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA143" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -14165,10 +14168,10 @@
         <v>2.955303411642064</v>
       </c>
       <c r="Z144" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA144" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -14191,7 +14194,7 @@
         <v>389</v>
       </c>
       <c r="G145" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H145">
         <v>-0.1601180821226825</v>
@@ -14248,10 +14251,10 @@
         <v>2.004073766625282</v>
       </c>
       <c r="Z145" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA145" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -14274,7 +14277,7 @@
         <v>252</v>
       </c>
       <c r="G146" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H146">
         <v>-0.1550489261219188</v>
@@ -14331,10 +14334,10 @@
         <v>1.489714984604657</v>
       </c>
       <c r="Z146" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA146" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -14357,7 +14360,7 @@
         <v>389</v>
       </c>
       <c r="G147" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H147">
         <v>-0.3734139223689172</v>
@@ -14414,10 +14417,10 @@
         <v>3.177820695097878</v>
       </c>
       <c r="Z147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA147" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -14497,10 +14500,10 @@
         <v>2.538191054650423</v>
       </c>
       <c r="Z148" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA148" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -14523,7 +14526,7 @@
         <v>391</v>
       </c>
       <c r="G149" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H149">
         <v>0.2583585870681205</v>
@@ -14580,10 +14583,10 @@
         <v>2.530467988611986</v>
       </c>
       <c r="Z149" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA149" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -14606,7 +14609,7 @@
         <v>389</v>
       </c>
       <c r="G150" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H150">
         <v>0.1221771424799774</v>
@@ -14663,10 +14666,10 @@
         <v>1.592874900666934</v>
       </c>
       <c r="Z150" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA150" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -14746,10 +14749,10 @@
         <v>2.646733002285099</v>
       </c>
       <c r="Z151" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA151" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -14772,7 +14775,7 @@
         <v>389</v>
       </c>
       <c r="G152" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H152">
         <v>0.2244687702271794</v>
@@ -14829,10 +14832,10 @@
         <v>1.796610786143224</v>
       </c>
       <c r="Z152" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA152" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -14852,7 +14855,7 @@
         <v>361</v>
       </c>
       <c r="F153" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G153" t="s">
         <v>252</v>
@@ -14912,10 +14915,10 @@
         <v>1.885728128577423</v>
       </c>
       <c r="Z153" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AA153" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -14935,10 +14938,10 @@
         <v>362</v>
       </c>
       <c r="F154" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G154" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H154">
         <v>-0.140903351334035</v>
@@ -14995,10 +14998,10 @@
         <v>2.764811089988692</v>
       </c>
       <c r="Z154" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA154" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -15021,7 +15024,7 @@
         <v>389</v>
       </c>
       <c r="G155" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H155">
         <v>-0.2668866316337902</v>
@@ -15078,10 +15081,10 @@
         <v>2.523188493944529</v>
       </c>
       <c r="Z155" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA155" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -15104,7 +15107,7 @@
         <v>389</v>
       </c>
       <c r="G156" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H156">
         <v>-0.286908730475228</v>
@@ -15161,10 +15164,10 @@
         <v>2.49358016522632</v>
       </c>
       <c r="Z156" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA156" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -15187,7 +15190,7 @@
         <v>389</v>
       </c>
       <c r="G157" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H157">
         <v>0.1500968522844044</v>
@@ -15244,10 +15247,10 @@
         <v>3.009028324099881</v>
       </c>
       <c r="Z157" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA157" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -15327,10 +15330,10 @@
         <v>3.368981594048491</v>
       </c>
       <c r="Z158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA158" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -15410,10 +15413,10 @@
         <v>1.712065615676164</v>
       </c>
       <c r="Z159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA159" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -15436,7 +15439,7 @@
         <v>389</v>
       </c>
       <c r="G160" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H160">
         <v>-0.2090280490329484</v>
@@ -15493,10 +15496,10 @@
         <v>1.555831014316845</v>
       </c>
       <c r="Z160" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA160" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -15576,10 +15579,10 @@
         <v>2.094484442703065</v>
       </c>
       <c r="Z161" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA161" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -15659,10 +15662,10 @@
         <v>1.389954075824006</v>
       </c>
       <c r="Z162" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA162" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -15742,10 +15745,10 @@
         <v>2.465057871446903</v>
       </c>
       <c r="Z163" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA163" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -15825,10 +15828,10 @@
         <v>0.6496693670064931</v>
       </c>
       <c r="Z164" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA164" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -15851,7 +15854,7 @@
         <v>389</v>
       </c>
       <c r="G165" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H165">
         <v>0.1761789210251184</v>
@@ -15908,10 +15911,10 @@
         <v>1.301402433724598</v>
       </c>
       <c r="Z165" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA165" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -15991,10 +15994,10 @@
         <v>1.117705953849967</v>
       </c>
       <c r="Z166" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA166" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -16017,7 +16020,7 @@
         <v>389</v>
       </c>
       <c r="G167" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H167">
         <v>0.1167149797718514</v>
@@ -16074,10 +16077,10 @@
         <v>3.415348937329951</v>
       </c>
       <c r="Z167" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA167" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -16100,7 +16103,7 @@
         <v>389</v>
       </c>
       <c r="G168" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H168">
         <v>-0.136418917217821</v>
@@ -16157,10 +16160,10 @@
         <v>2.941863494709614</v>
       </c>
       <c r="Z168" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA168" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -16183,7 +16186,7 @@
         <v>389</v>
       </c>
       <c r="G169" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H169">
         <v>-0.1852394036658012</v>
@@ -16240,10 +16243,10 @@
         <v>0.5489893963095815</v>
       </c>
       <c r="Z169" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA169" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -16323,10 +16326,10 @@
         <v>1.494774021099326</v>
       </c>
       <c r="Z170" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA170" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -16406,10 +16409,10 @@
         <v>1.915609632677615</v>
       </c>
       <c r="Z171" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AA171" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -16432,7 +16435,7 @@
         <v>391</v>
       </c>
       <c r="G172" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H172">
         <v>0.1508179218137608</v>
@@ -16489,10 +16492,10 @@
         <v>1.622142056482451</v>
       </c>
       <c r="Z172" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA172" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -16572,10 +16575,10 @@
         <v>1.558310248167945</v>
       </c>
       <c r="Z173" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA173" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -16598,7 +16601,7 @@
         <v>389</v>
       </c>
       <c r="G174" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H174">
         <v>-0.1666063442851978</v>
@@ -16655,10 +16658,10 @@
         <v>2.347339279652016</v>
       </c>
       <c r="Z174" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA174" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -16681,7 +16684,7 @@
         <v>389</v>
       </c>
       <c r="G175" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H175">
         <v>0.1193942092758448</v>
@@ -16738,10 +16741,10 @@
         <v>1.75480975685428</v>
       </c>
       <c r="Z175" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA175" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -16761,10 +16764,10 @@
         <v>379</v>
       </c>
       <c r="F176" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G176" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H176">
         <v>0.3108850037003252</v>
@@ -16821,10 +16824,10 @@
         <v>1.437996966575579</v>
       </c>
       <c r="Z176" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA176" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -16847,7 +16850,7 @@
         <v>389</v>
       </c>
       <c r="G177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H177">
         <v>-0.1752833093167933</v>
@@ -16904,10 +16907,10 @@
         <v>1.53893996261503</v>
       </c>
       <c r="Z177" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA177" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -16987,10 +16990,10 @@
         <v>2.260245833878456</v>
       </c>
       <c r="Z178" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA178" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -17070,10 +17073,10 @@
         <v>1.312840063417841</v>
       </c>
       <c r="Z179" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA179" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -17153,10 +17156,10 @@
         <v>1.73243025904471</v>
       </c>
       <c r="Z180" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA180" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -17179,7 +17182,7 @@
         <v>395</v>
       </c>
       <c r="G181" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H181">
         <v>0.1329168634867819</v>
@@ -17236,10 +17239,10 @@
         <v>1.979992942376752</v>
       </c>
       <c r="Z181" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AA181" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -17262,7 +17265,7 @@
         <v>389</v>
       </c>
       <c r="G182" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H182">
         <v>-0.1493173004634952</v>
@@ -17319,10 +17322,10 @@
         <v>0.9361718714884355</v>
       </c>
       <c r="Z182" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA182" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -17345,7 +17348,7 @@
         <v>389</v>
       </c>
       <c r="G183" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H183">
         <v>0.2222131889946394</v>
@@ -17402,10 +17405,10 @@
         <v>1.145170532654364</v>
       </c>
       <c r="Z183" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA183" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -17485,10 +17488,10 @@
         <v>2.004928221633396</v>
       </c>
       <c r="Z184" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA184" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -17511,7 +17514,7 @@
         <v>389</v>
       </c>
       <c r="G185" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H185">
         <v>0.1958323143838419</v>
@@ -17568,10 +17571,10 @@
         <v>1.821926883443547</v>
       </c>
       <c r="Z185" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA185" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -17651,10 +17654,10 @@
         <v>1.086157723401857</v>
       </c>
       <c r="Z186" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA186" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -17674,7 +17677,7 @@
         <v>386</v>
       </c>
       <c r="F187" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G187" t="s">
         <v>252</v>
@@ -17734,10 +17737,10 @@
         <v>2.474219587577643</v>
       </c>
       <c r="Z187" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA187" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -17760,7 +17763,7 @@
         <v>389</v>
       </c>
       <c r="G188" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H188">
         <v>0.1299252600012366</v>
@@ -17817,10 +17820,10 @@
         <v>2.429941772090351</v>
       </c>
       <c r="Z188" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA188" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -17900,10 +17903,10 @@
         <v>3.380078864203942</v>
       </c>
       <c r="Z189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA189" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -17983,10 +17986,10 @@
         <v>0.7393599597913397</v>
       </c>
       <c r="Z190" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA190" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
